--- a/datastatic/datasets/online/SDG1_Severe_Material_Deprivation_EUROSTAT_2015.xlsx
+++ b/datastatic/datasets/online/SDG1_Severe_Material_Deprivation_EUROSTAT_2015.xlsx
@@ -425,7 +425,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG1_Severe_Material_Deprivation_EUROSTAT_2015.xlsx
+++ b/datastatic/datasets/online/SDG1_Severe_Material_Deprivation_EUROSTAT_2015.xlsx
@@ -425,7 +425,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG1_Severe_Material_Deprivation_EUROSTAT_2015.xlsx
+++ b/datastatic/datasets/online/SDG1_Severe_Material_Deprivation_EUROSTAT_2015.xlsx
@@ -1295,7 +1295,9 @@
       <c r="A71" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="15"/>
+      <c r="B71" s="14">
+        <v>43.8</v>
+      </c>
       <c r="C71" s="15"/>
       <c r="D71" s="13">
         <v>43.8</v>
